--- a/Chapter 5/Case 05-01.xlsx
+++ b/Chapter 5/Case 05-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vafa.saboorideilami/Documents/5509 Summer 2024/Chapter 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB4BE78-6742-E241-B7CD-2F931171E463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314E719D-AEAE-9046-A3D3-071C64AA4715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case 5-1 Original" sheetId="7" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="72">
   <si>
     <t>C4:D4</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>Ad Units Print Media</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -2708,8 +2711,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="152" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2728,6 +2731,9 @@
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3578,7 +3584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
